--- a/Combined_datasets/Previous Datasets/Sampleset/prepared_for_language_model/Library_Management_Dataset_1_input_prep.xlsx
+++ b/Combined_datasets/Previous Datasets/Sampleset/prepared_for_language_model/Library_Management_Dataset_1_input_prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/Previous Datasets/Sampleset/prepared_for_language_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A679E18-D6C7-614E-B35D-8C4F76278925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE5635-C594-9A4F-92C9-A0674CA12A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="28400" windowHeight="16380" xr2:uid="{CD64CC7F-A379-814B-9D9A-13DE07272CB1}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
